--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E876C30B-F55E-4E46-9306-1033230635F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9189E2F7-90B3-41F7-89C2-71153E256111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="435" windowWidth="19995" windowHeight="15465" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
+    <workbookView xWindow="1095" yWindow="210" windowWidth="22170" windowHeight="15465" activeTab="1" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VER0" sheetId="1" r:id="rId1"/>
+    <sheet name="VER1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>พรีไซส์</t>
   </si>
@@ -114,6 +115,18 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>Mobile Workforce</t>
+  </si>
+  <si>
+    <t>GIS CIM improve</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Training</t>
   </si>
 </sst>
 </file>
@@ -122,7 +135,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -220,29 +233,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -560,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BE8D21-76F8-4235-9215-46C3B24FA6E6}">
   <dimension ref="A4:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +639,7 @@
         <v>330318800</v>
       </c>
       <c r="G5" s="11">
-        <f>MIN(C5:F5)</f>
+        <f t="shared" ref="G5:G12" si="0">MIN(C5:F5)</f>
         <v>325250000</v>
       </c>
       <c r="H5" s="11">
@@ -665,15 +679,15 @@
         <v>125872440</v>
       </c>
       <c r="G6" s="11">
-        <f>MIN(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>115500000</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H11" si="0">MAX(C6:F6)</f>
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
         <v>125872440</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:J11" si="1">AVERAGE(C6:F6)</f>
+        <f t="shared" ref="I6:J11" si="2">AVERAGE(C6:F6)</f>
         <v>119310610</v>
       </c>
       <c r="J6" s="11">
@@ -706,19 +720,19 @@
         <v>126000000</v>
       </c>
       <c r="G7" s="11">
-        <f>MIN(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>110320000</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154726500</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129011625</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117910000</v>
       </c>
       <c r="K7" t="s">
@@ -747,15 +761,15 @@
         <v>39471480</v>
       </c>
       <c r="G8" s="11">
-        <f>MIN(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>39471480</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>205250000</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125962422.5</v>
       </c>
       <c r="J8" s="11">
@@ -788,15 +802,15 @@
         <v>59517615</v>
       </c>
       <c r="G9" s="11">
-        <f>MIN(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>59517615</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>456500000</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183376903.75</v>
       </c>
       <c r="J9" s="11">
@@ -828,15 +842,15 @@
         <v>24000000</v>
       </c>
       <c r="G10" s="11">
-        <f>MIN(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>22700000</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48000000</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29350000</v>
       </c>
       <c r="J10" s="11">
@@ -861,19 +875,19 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
-        <f>MIN(C11:F11)</f>
-        <v>10000000</v>
-      </c>
-      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="I11" s="11">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
       <c r="J11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
     </row>
@@ -897,7 +911,7 @@
         <v>705180335</v>
       </c>
       <c r="G12" s="14">
-        <f>MIN(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>705180335</v>
       </c>
       <c r="H12" s="14">
@@ -1130,4 +1144,648 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3E756-62F5-447F-9A0F-8FE2A85658FD}">
+  <dimension ref="A4:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <f>C21</f>
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>939000000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G16" si="0">MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>939000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>505692200</v>
+      </c>
+      <c r="J5" s="11">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>E21</f>
+        <v>115870000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
+        <v>125872440</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:J11" si="2">AVERAGE(C6:F6)</f>
+        <v>119310610</v>
+      </c>
+      <c r="J6" s="11">
+        <f>I6</f>
+        <v>119310610</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <f>C28</f>
+        <v>154726500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>E24</f>
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>154726500</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>129011625</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>117910000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <f>C30</f>
+        <v>176388210</v>
+      </c>
+      <c r="D8" s="11">
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="11">
+        <f>E25</f>
+        <v>82740000</v>
+      </c>
+      <c r="F8" s="11">
+        <v>39471480</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>39471480</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>205250000</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>125962422.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f>H8</f>
+        <v>205250000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <f>C34</f>
+        <v>456500000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <f>E26</f>
+        <v>82740000</v>
+      </c>
+      <c r="F9" s="16">
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>82740000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>456500000</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>243019519</v>
+      </c>
+      <c r="J9" s="11">
+        <f>I9</f>
+        <v>243019519</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="11">
+        <f>G10</f>
+        <v>22700000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>9800000</v>
+      </c>
+      <c r="J11" s="11">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="16">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="16">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="16">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="15">
+        <f>SUM(C5:C15)</f>
+        <v>1393814710</v>
+      </c>
+      <c r="D16" s="15">
+        <f>SUM(D5:D15)</f>
+        <v>928450000</v>
+      </c>
+      <c r="E16" s="15">
+        <f>SUM(E5:E15)</f>
+        <v>1353370000</v>
+      </c>
+      <c r="F16" s="15">
+        <f>SUM(F5:F15)</f>
+        <v>953350796</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(G5:G15)</f>
+        <v>705581480</v>
+      </c>
+      <c r="H16" s="15">
+        <f>SUM(H5:H15)</f>
+        <v>1939348940</v>
+      </c>
+      <c r="I16" s="15">
+        <f>SUM(I5:I15)</f>
+        <v>1162146376.5</v>
+      </c>
+      <c r="J16" s="15">
+        <f>SUM(J5:J15)</f>
+        <v>1062540129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>355000000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>78670000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>73200000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>37200000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C19+C20</f>
+        <v>428200000</v>
+      </c>
+      <c r="E21" s="1">
+        <f>E19+E20</f>
+        <v>115870000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>309453000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>275800000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C23*0.5</f>
+        <v>154726500</v>
+      </c>
+      <c r="E24" s="7">
+        <f>E23*0.4</f>
+        <v>110320000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <f>C23*0.5</f>
+        <v>154726500</v>
+      </c>
+      <c r="E25" s="7">
+        <f>E23*0.3</f>
+        <v>82740000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="E26" s="7">
+        <f>E23*0.3</f>
+        <v>82740000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C24</f>
+        <v>154726500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C25+C27</f>
+        <v>176388210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C32+C33</f>
+        <v>456500000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>355000000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>309453000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <f>SUM(C36:C44)</f>
+        <v>1393814710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="8">
+        <f>C45*1.07</f>
+        <v>1491381739.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9189E2F7-90B3-41F7-89C2-71153E256111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8860587-6045-45C4-84EE-DA1BCB7E95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="210" windowWidth="22170" windowHeight="15465" activeTab="1" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
+    <workbookView xWindow="1095" yWindow="210" windowWidth="22170" windowHeight="15465" activeTab="2" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="VER0" sheetId="1" r:id="rId1"/>
     <sheet name="VER1" sheetId="2" r:id="rId2"/>
+    <sheet name="VER1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>พรีไซส์</t>
   </si>
@@ -127,6 +129,30 @@
   </si>
   <si>
     <t>Training</t>
+  </si>
+  <si>
+    <t>3 ปี</t>
+  </si>
+  <si>
+    <t>2 ปี</t>
+  </si>
+  <si>
+    <t>งบ I</t>
+  </si>
+  <si>
+    <t>C &amp; I</t>
+  </si>
+  <si>
+    <t>ค่าสนับสนุนการใช้งานและบำรุงรักษา 5 ปี</t>
+  </si>
+  <si>
+    <t>MWM</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>ประมวลผล</t>
   </si>
 </sst>
 </file>
@@ -233,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +283,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1150,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3E756-62F5-447F-9A0F-8FE2A85658FD}">
   <dimension ref="A4:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,6 +1191,7 @@
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1214,7 +1243,7 @@
         <v>330318800</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" ref="G5:G16" si="0">MIN(C5:F5)</f>
+        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
         <v>325250000</v>
       </c>
       <c r="H5" s="11">
@@ -1318,36 +1347,36 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="17">
         <f>C30</f>
         <v>176388210</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="17">
         <v>205250000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="17">
         <f>E25</f>
         <v>82740000</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="17">
         <v>39471480</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>39471480</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>205250000</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <f t="shared" si="2"/>
         <v>125962422.5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="17">
         <f>H8</f>
         <v>205250000</v>
       </c>
@@ -1360,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11">
         <f>C34</f>
@@ -1373,7 +1402,7 @@
         <f>E26</f>
         <v>82740000</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="17">
         <v>298088076</v>
       </c>
       <c r="G9" s="11">
@@ -1539,35 +1568,35 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="15">
-        <f>SUM(C5:C15)</f>
+        <f t="shared" ref="C16:J16" si="3">SUM(C5:C15)</f>
         <v>1393814710</v>
       </c>
       <c r="D16" s="15">
-        <f>SUM(D5:D15)</f>
+        <f t="shared" si="3"/>
         <v>928450000</v>
       </c>
       <c r="E16" s="15">
-        <f>SUM(E5:E15)</f>
+        <f t="shared" si="3"/>
         <v>1353370000</v>
       </c>
       <c r="F16" s="15">
-        <f>SUM(F5:F15)</f>
+        <f t="shared" si="3"/>
         <v>953350796</v>
       </c>
       <c r="G16" s="15">
-        <f>SUM(G5:G15)</f>
+        <f t="shared" si="3"/>
         <v>705581480</v>
       </c>
       <c r="H16" s="15">
-        <f>SUM(H5:H15)</f>
+        <f t="shared" si="3"/>
         <v>1939348940</v>
       </c>
       <c r="I16" s="15">
-        <f>SUM(I5:I15)</f>
+        <f t="shared" si="3"/>
         <v>1162146376.5</v>
       </c>
       <c r="J16" s="15">
-        <f>SUM(J5:J15)</f>
+        <f t="shared" si="3"/>
         <v>1062540129</v>
       </c>
     </row>
@@ -1589,7 +1618,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <f>J16*1.07</f>
+        <v>1136917938.03</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1612,6 +1644,10 @@
       <c r="E20" s="1">
         <v>37200000</v>
       </c>
+      <c r="J20" s="4">
+        <f>J8+J12+J13+J14+J15</f>
+        <v>224750000</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
@@ -1625,6 +1661,19 @@
         <f>E19+E20</f>
         <v>115870000</v>
       </c>
+      <c r="J21" s="4">
+        <f>J20/5</f>
+        <v>44950000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="4">
+        <f>J21*3</f>
+        <v>134850000</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1636,6 +1685,13 @@
       <c r="E23" s="1">
         <v>275800000</v>
       </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="4">
+        <f>J20-J22</f>
+        <v>89900000</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -1649,6 +1705,10 @@
         <f>E23*0.4</f>
         <v>110320000</v>
       </c>
+      <c r="J24" s="4">
+        <f>J22+J23</f>
+        <v>224750000</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1661,6 +1721,9 @@
       <c r="E25" s="7">
         <f>E23*0.3</f>
         <v>82740000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1669,6 +1732,9 @@
         <f>E23*0.3</f>
         <v>82740000</v>
       </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -1788,4 +1854,579 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE034A8-68EE-4374-85DE-3B0749B96868}">
+  <dimension ref="A4:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>939000000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>939000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>505692200</v>
+      </c>
+      <c r="J5" s="11">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="K5" s="11">
+        <f>J5</f>
+        <v>325250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>115870000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
+        <v>125872440</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:J11" si="2">AVERAGE(C6:F6)</f>
+        <v>119310610</v>
+      </c>
+      <c r="J6" s="11">
+        <f>I6</f>
+        <v>119310610</v>
+      </c>
+      <c r="K6" s="11">
+        <f>J6</f>
+        <v>119310610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>154726500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>154726500</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>129011625</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>117910000</v>
+      </c>
+      <c r="K7" s="11">
+        <f>J7</f>
+        <v>117910000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17">
+        <v>176388210</v>
+      </c>
+      <c r="D8" s="17">
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="17">
+        <v>82740000</v>
+      </c>
+      <c r="F8" s="17">
+        <v>39471480</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>39471480</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>205250000</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>125962422.5</v>
+      </c>
+      <c r="J8" s="17">
+        <f>H8</f>
+        <v>205250000</v>
+      </c>
+      <c r="K8" s="11">
+        <f>J8+Sheet2!C8</f>
+        <v>225000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <v>456500000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>82740000</v>
+      </c>
+      <c r="F9" s="17">
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>82740000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>456500000</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>243019519</v>
+      </c>
+      <c r="J9" s="11">
+        <f>I9</f>
+        <v>243019519</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:K11" si="3">J9</f>
+        <v>243019519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="11">
+        <f>G10</f>
+        <v>22700000</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="3"/>
+        <v>22700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>9800000</v>
+      </c>
+      <c r="J11" s="11">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="3"/>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="15">
+        <f>SUM(C5:C11)</f>
+        <v>1393814710</v>
+      </c>
+      <c r="D12" s="15">
+        <f>SUM(D5:D11)</f>
+        <v>928450000</v>
+      </c>
+      <c r="E12" s="15">
+        <f>SUM(E5:E11)</f>
+        <v>1353370000</v>
+      </c>
+      <c r="F12" s="15">
+        <f>SUM(F5:F11)</f>
+        <v>953350796</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(G5:G11)</f>
+        <v>705581480</v>
+      </c>
+      <c r="H12" s="15">
+        <f>SUM(H5:H11)</f>
+        <v>1939348940</v>
+      </c>
+      <c r="I12" s="15">
+        <f>SUM(I5:I11)</f>
+        <v>1162146376.5</v>
+      </c>
+      <c r="J12" s="15">
+        <f>SUM(J5:J11)</f>
+        <v>1043040129</v>
+      </c>
+      <c r="K12" s="15">
+        <f>SUM(K5:K11)</f>
+        <v>1062790129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <f>SUM(C32:C40)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <f>C41*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6D22A-C942-4650-93DD-49A7BCC8BA62}">
+  <dimension ref="B4:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="16">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4750000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <f>SUM(C4:C7)</f>
+        <v>19750000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8860587-6045-45C4-84EE-DA1BCB7E95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC655C1-3308-4580-9CF1-022F000EF038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="210" windowWidth="22170" windowHeight="15465" activeTab="2" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
+    <workbookView xWindow="2415" yWindow="360" windowWidth="24090" windowHeight="15465" activeTab="7" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="VER0" sheetId="1" r:id="rId1"/>
     <sheet name="VER1" sheetId="2" r:id="rId2"/>
     <sheet name="VER1 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="ADDED" sheetId="4" r:id="rId4"/>
+    <sheet name="PLATNERA" sheetId="5" r:id="rId5"/>
+    <sheet name="FORTH" sheetId="6" r:id="rId6"/>
+    <sheet name="VER1 (3)" sheetId="7" r:id="rId7"/>
+    <sheet name="VER1 (4)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t>พรีไซส์</t>
   </si>
@@ -153,6 +157,27 @@
   </si>
   <si>
     <t>ประมวลผล</t>
+  </si>
+  <si>
+    <t>ราคาเดิม</t>
+  </si>
+  <si>
+    <t>สัดส่วนใหม่</t>
+  </si>
+  <si>
+    <t>Trimble</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>ประมวลผล(MIX)</t>
   </si>
 </sst>
 </file>
@@ -163,7 +188,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +247,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -285,6 +317,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1179,7 +1217,7 @@
   <dimension ref="A4:K46"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE034A8-68EE-4374-85DE-3B0749B96868}">
-  <dimension ref="A4:K42"/>
+  <dimension ref="A3:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,14 +1907,27 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
@@ -2045,27 +2096,27 @@
         <v>82740000</v>
       </c>
       <c r="F8" s="17">
-        <v>39471480</v>
+        <v>240000000</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>39471480</v>
+        <v>82740000</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>205250000</v>
+        <v>240000000</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="2"/>
-        <v>125962422.5</v>
+        <v>176094552.5</v>
       </c>
       <c r="J8" s="17">
         <f>H8</f>
-        <v>205250000</v>
+        <v>240000000</v>
       </c>
       <c r="K8" s="11">
-        <f>J8+Sheet2!C8</f>
-        <v>225000000</v>
+        <f>J8+ADDED!C8</f>
+        <v>259750000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2189,47 +2240,59 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="15">
-        <f>SUM(C5:C11)</f>
+        <f t="shared" ref="C12:K12" si="4">SUM(C5:C11)</f>
         <v>1393814710</v>
       </c>
       <c r="D12" s="15">
-        <f>SUM(D5:D11)</f>
+        <f t="shared" si="4"/>
         <v>928450000</v>
       </c>
       <c r="E12" s="15">
-        <f>SUM(E5:E11)</f>
+        <f t="shared" si="4"/>
         <v>1353370000</v>
       </c>
       <c r="F12" s="15">
-        <f>SUM(F5:F11)</f>
-        <v>953350796</v>
+        <f t="shared" si="4"/>
+        <v>1153879316</v>
       </c>
       <c r="G12" s="15">
-        <f>SUM(G5:G11)</f>
-        <v>705581480</v>
+        <f t="shared" si="4"/>
+        <v>748850000</v>
       </c>
       <c r="H12" s="15">
-        <f>SUM(H5:H11)</f>
-        <v>1939348940</v>
+        <f t="shared" si="4"/>
+        <v>1974098940</v>
       </c>
       <c r="I12" s="15">
-        <f>SUM(I5:I11)</f>
-        <v>1162146376.5</v>
+        <f t="shared" si="4"/>
+        <v>1212278506.5</v>
       </c>
       <c r="J12" s="15">
-        <f>SUM(J5:J11)</f>
-        <v>1043040129</v>
+        <f t="shared" si="4"/>
+        <v>1077790129</v>
       </c>
       <c r="K12" s="15">
-        <f>SUM(K5:K11)</f>
-        <v>1062790129</v>
+        <f t="shared" si="4"/>
+        <v>1097540129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <f>SUM(C8:C9)</f>
+        <v>632888210</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(D8:D9)</f>
+        <v>340000000</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E8:E9)</f>
+        <v>165480000</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F8:F9)</f>
+        <v>538088076</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2429,4 +2492,1323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56159814-CF38-48A1-8CA9-D4DCB22F8666}">
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E4:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>939000000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>520000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11">
+        <v>115870000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>115870000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>110320000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>110320000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17">
+        <v>82740000</v>
+      </c>
+      <c r="E7" s="17">
+        <v>251000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11">
+        <v>82740000</v>
+      </c>
+      <c r="E8" s="11">
+        <v>321000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>22700000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>35180000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:E11" si="0">SUM(D4:D10)</f>
+        <v>1353370000</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>1353370000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0367729-8004-47C0-BA84-7B9AD7E7F668}">
+  <dimension ref="B3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="E4" s="11">
+        <v>330318800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="E5" s="11">
+        <v>125872440</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>126000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17">
+        <v>39471480</v>
+      </c>
+      <c r="E7" s="17">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17">
+        <v>298088076</v>
+      </c>
+      <c r="E8" s="17">
+        <v>298088076</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="15">
+        <f t="shared" ref="D11" si="0">SUM(D4:D10)</f>
+        <v>953350796</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11" si="1">SUM(E4:E10)</f>
+        <v>1153879316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1689F51-BD24-4282-9539-DBC370D84064}">
+  <dimension ref="A3:K42"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>520000000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>520000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>400942200</v>
+      </c>
+      <c r="J5" s="11">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="K5" s="11">
+        <f>J5</f>
+        <v>325250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>115870000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
+        <v>125872440</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I11" si="2">AVERAGE(C6:F6)</f>
+        <v>119310610</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ref="J6:J10" si="3">G6</f>
+        <v>115500000</v>
+      </c>
+      <c r="K6" s="11">
+        <f>J6</f>
+        <v>115500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>154726500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>154726500</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>129011625</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="3"/>
+        <v>110320000</v>
+      </c>
+      <c r="K7" s="11">
+        <f>J7</f>
+        <v>110320000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17">
+        <v>176388210</v>
+      </c>
+      <c r="D8" s="17">
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="17">
+        <v>251000000</v>
+      </c>
+      <c r="F8" s="17">
+        <v>240000000</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>176388210</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>251000000</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>218159552.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="3"/>
+        <v>176388210</v>
+      </c>
+      <c r="K8" s="11">
+        <f>J8+ADDED!C8</f>
+        <v>196138210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <v>456500000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>321000000</v>
+      </c>
+      <c r="F9" s="17">
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>134750000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>456500000</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>302584519</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="3"/>
+        <v>134750000</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:K11" si="4">J9</f>
+        <v>134750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>E10</f>
+        <v>35180000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>35180000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>24000000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>35590000</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>24000000</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="4"/>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>9800000</v>
+      </c>
+      <c r="J11" s="11">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="15">
+        <f t="shared" ref="C12:K12" si="5">SUM(C5:C11)</f>
+        <v>1393814710</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="5"/>
+        <v>940930000</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="5"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="5"/>
+        <v>1153879316</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="5"/>
+        <v>895808210</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="5"/>
+        <v>1566098940</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="5"/>
+        <v>1215398506.5</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="5"/>
+        <v>895808210</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="5"/>
+        <v>915558210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f>SUM(C8:C9)</f>
+        <v>632888210</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(D8:D9)</f>
+        <v>340000000</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E8:E9)</f>
+        <v>572000000</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F8:F9)</f>
+        <v>538088076</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <f>SUM(C32:C40)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <f>C41*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D03D2F-CBEB-471A-92CE-BDFFB508F28B}">
+  <dimension ref="A3:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>520000000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>520000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>400942200</v>
+      </c>
+      <c r="J5" s="11">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>115870000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
+        <v>125872440</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I11" si="2">AVERAGE(C6:F6)</f>
+        <v>119310610</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ref="J6:J10" si="3">G6</f>
+        <v>115500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>154726500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>154726500</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>129011625</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="3"/>
+        <v>110320000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17">
+        <v>176388210</v>
+      </c>
+      <c r="D8" s="17">
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="17">
+        <v>251000000</v>
+      </c>
+      <c r="F8" s="17">
+        <v>240000000</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>176388210</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>251000000</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>218159552.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f>H8</f>
+        <v>251000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <v>456500000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>321000000</v>
+      </c>
+      <c r="F9" s="17">
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>134750000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>456500000</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>302584519</v>
+      </c>
+      <c r="J9" s="11">
+        <f>I9</f>
+        <v>302584519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>E10</f>
+        <v>35180000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>35180000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>24000000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>35590000</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>9800000</v>
+      </c>
+      <c r="J11" s="11">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="15">
+        <f t="shared" ref="C12:J12" si="4">SUM(C5:C11)</f>
+        <v>1393814710</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="4"/>
+        <v>940930000</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="4"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="4"/>
+        <v>1153879316</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="4"/>
+        <v>895808210</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="4"/>
+        <v>1566098940</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="4"/>
+        <v>1215398506.5</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="4"/>
+        <v>1138254519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f>SUM(C8:C9)</f>
+        <v>632888210</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(D8:D9)</f>
+        <v>340000000</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E8:E9)</f>
+        <v>572000000</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F8:F9)</f>
+        <v>538088076</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <f>SUM(C32:C40)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <f>C41*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC655C1-3308-4580-9CF1-022F000EF038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120786ED-8B49-4909-BE1A-A85D57ADEBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="360" windowWidth="24090" windowHeight="15465" activeTab="7" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
+    <workbookView xWindow="2190" yWindow="450" windowWidth="25770" windowHeight="15180" tabRatio="785" activeTab="10" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
   <sheets>
-    <sheet name="VER0" sheetId="1" r:id="rId1"/>
-    <sheet name="VER1" sheetId="2" r:id="rId2"/>
+    <sheet name="2023-07-07 (2)" sheetId="17" r:id="rId1"/>
+    <sheet name="VER0" sheetId="1" r:id="rId2"/>
     <sheet name="VER1 (2)" sheetId="3" r:id="rId3"/>
     <sheet name="ADDED" sheetId="4" r:id="rId4"/>
-    <sheet name="PLATNERA" sheetId="5" r:id="rId5"/>
-    <sheet name="FORTH" sheetId="6" r:id="rId6"/>
-    <sheet name="VER1 (3)" sheetId="7" r:id="rId7"/>
-    <sheet name="VER1 (4)" sheetId="8" r:id="rId8"/>
+    <sheet name="VER2" sheetId="2" r:id="rId5"/>
+    <sheet name="2023-07-06" sheetId="7" r:id="rId6"/>
+    <sheet name="หารือคุณลักษณ์" sheetId="10" r:id="rId7"/>
+    <sheet name="2023-07-07" sheetId="9" r:id="rId8"/>
+    <sheet name="2023-07-07a" sheetId="12" r:id="rId9"/>
+    <sheet name="2023-07-07b" sheetId="13" r:id="rId10"/>
+    <sheet name="2023-07-07c" sheetId="14" r:id="rId11"/>
+    <sheet name="2023-07-07d" sheetId="16" r:id="rId12"/>
+    <sheet name="2023-07-07e" sheetId="15" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="56">
   <si>
     <t>พรีไซส์</t>
   </si>
@@ -159,12 +167,6 @@
     <t>ประมวลผล</t>
   </si>
   <si>
-    <t>ราคาเดิม</t>
-  </si>
-  <si>
-    <t>สัดส่วนใหม่</t>
-  </si>
-  <si>
     <t>Trimble</t>
   </si>
   <si>
@@ -177,18 +179,61 @@
     <t>Oracle</t>
   </si>
   <si>
-    <t>ประมวลผล(MIX)</t>
+    <t>ที่ปรึกษา(MIX)</t>
+  </si>
+  <si>
+    <t>ที่ปรึกษา(MIN)</t>
+  </si>
+  <si>
+    <t>Oracle?</t>
+  </si>
+  <si>
+    <t>ค่าตลาด</t>
+  </si>
+  <si>
+    <t>เพื่อพิจารณา</t>
+  </si>
+  <si>
+    <t>คำถาม 2</t>
+  </si>
+  <si>
+    <t>คำถามที่ 1</t>
+  </si>
+  <si>
+    <t>ปรับสัดส่วนตามหมวดหมูประมาณนี้ได้หรือไม่</t>
+  </si>
+  <si>
+    <t>48 ล้าน รวมบำรุงรักษาด้วยแล้วหรือไม่</t>
+  </si>
+  <si>
+    <t>Training+Helpdesk added</t>
+  </si>
+  <si>
+    <t>กรอบงบประมาณ</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>ลำดับ</t>
+  </si>
+  <si>
+    <t>จำนวนเงินรวม</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,16 +299,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -286,12 +387,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,16 +445,65 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,6 +516,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,11 +836,2229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A918D58B-046C-4B56-B3FA-9F7F018B3142}">
+  <dimension ref="A3:L42"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>884700000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="20">
+        <v>676000000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>884700000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>554067200</v>
+      </c>
+      <c r="J5" s="22">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="K5" s="22">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>176870000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
+        <v>176870000</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I11" si="2">AVERAGE(C6:F6)</f>
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" ref="J6:J10" si="3">G6</f>
+        <v>115500000</v>
+      </c>
+      <c r="K6" s="22">
+        <f>G6</f>
+        <v>115500000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>126000000</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>120330000</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="3"/>
+        <v>110320000</v>
+      </c>
+      <c r="K7" s="22">
+        <f>I7</f>
+        <v>120330000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="44">
+        <v>188766330</v>
+      </c>
+      <c r="D8" s="44">
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="45">
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="45">
+        <v>244000000</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>167480000</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>244000000</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>201374082.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>G8+[1]Sheet1!$A$2</f>
+        <v>167480000</v>
+      </c>
+      <c r="K8" s="22">
+        <f>H8</f>
+        <v>244000000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="46">
+        <v>108308550</v>
+      </c>
+      <c r="D9" s="46">
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="46">
+        <v>200000000</v>
+      </c>
+      <c r="F9" s="44">
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>108308550</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>298088076</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>185286656.5</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>108308550</v>
+      </c>
+      <c r="K9" s="22">
+        <f>I9</f>
+        <v>185286656.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="3"/>
+        <v>22700000</v>
+      </c>
+      <c r="K10" s="22">
+        <f>G10</f>
+        <v>22700000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>9800000</v>
+      </c>
+      <c r="J11" s="22">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="K11" s="22">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="15">
+        <f t="shared" ref="C12:K12" si="4">SUM(C5:C11)</f>
+        <v>1479774880</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="4"/>
+        <v>928450000</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="4"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="4"/>
+        <v>1157879316</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="4"/>
+        <v>859158550</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="4"/>
+        <v>1787658076</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="4"/>
+        <v>1234768549</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="4"/>
+        <v>859158550</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="4"/>
+        <v>1022666656.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>154726500</v>
+      </c>
+      <c r="D13" s="47">
+        <f>SUM(C8:F8)</f>
+        <v>805496330</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>176388210</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>456500000</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C14:C15)</f>
+        <v>632888210</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5">
+        <f>C15+C14+C13</f>
+        <v>787614710</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <f>C12*1.07</f>
+        <v>1583359121.6000001</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <f>SUM(C32:C40)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <f>C41*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660AF030-B049-4C1E-9445-4169389FDD2D}">
+  <dimension ref="A4:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="159" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="22">
+        <v>554067200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="22">
+        <v>134560610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>120330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="22">
+        <v>226024082.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="22">
+        <v>185286656.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22">
+        <v>29350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="23">
+        <v>1249618549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>1249618549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FC0308-2A18-4F5D-B8C0-27FC72DA37CC}">
+  <dimension ref="A3:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="36">
+        <f>C13*C16</f>
+        <v>663525000</v>
+      </c>
+      <c r="D5" s="11">
+        <f>'2023-07-07'!D5</f>
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>'2023-07-07'!E5</f>
+        <v>676000000</v>
+      </c>
+      <c r="F5" s="11">
+        <f>'2023-07-07'!F5</f>
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f>MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>676000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>498773450</v>
+      </c>
+      <c r="J5" s="22">
+        <f>I5</f>
+        <v>498773450</v>
+      </c>
+      <c r="K5" s="51">
+        <f>ROUND(J5,-3)+1000</f>
+        <v>498774000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <f>'2023-07-07'!C6</f>
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'2023-07-07'!D6</f>
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>'2023-07-07'!E6</f>
+        <v>176870000</v>
+      </c>
+      <c r="F6" s="11">
+        <f>'2023-07-07'!F6</f>
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G10" si="0">MIN(C6:F6)</f>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H10" si="1">MAX(C6:F6)</f>
+        <v>176870000</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I10" si="2">AVERAGE(C6:F6)</f>
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
+        <f>I6</f>
+        <v>134560610</v>
+      </c>
+      <c r="K6" s="51">
+        <f t="shared" ref="K6:K10" si="3">ROUND(J6,-3)</f>
+        <v>134561000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'2023-07-07'!C7</f>
+        <v>120000000</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'2023-07-07'!D7</f>
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>'2023-07-07'!E7</f>
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <f>'2023-07-07'!F7</f>
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>126000000</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>120330000</v>
+      </c>
+      <c r="J7" s="22">
+        <f>I7</f>
+        <v>120330000</v>
+      </c>
+      <c r="K7" s="51">
+        <f t="shared" si="3"/>
+        <v>120330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31">
+        <f>'2023-07-07'!C8+'2023-07-07'!C11</f>
+        <v>198766330</v>
+      </c>
+      <c r="D8" s="31">
+        <f>'2023-07-07'!D8+'2023-07-07'!D11</f>
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="31">
+        <f>'2023-07-07'!E8+'2023-07-07'!E11</f>
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'2023-07-07'!F8+'2023-07-07'!F11</f>
+        <v>253600000</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>167480000</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>253600000</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="2"/>
+        <v>206274082.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>ADDED!C8+I8</f>
+        <v>226024082.5</v>
+      </c>
+      <c r="K8" s="51">
+        <f>ROUND(J8,-3)+1000</f>
+        <v>226025000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="36">
+        <f>C15-C5</f>
+        <v>329483550</v>
+      </c>
+      <c r="D9" s="11">
+        <f>'2023-07-07'!D9</f>
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <f>'2023-07-07'!E9</f>
+        <v>200000000</v>
+      </c>
+      <c r="F9" s="11">
+        <f>'2023-07-07'!F9</f>
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>134750000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>329483550</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>240580406.5</v>
+      </c>
+      <c r="J9" s="22">
+        <f>I9</f>
+        <v>240580406.5</v>
+      </c>
+      <c r="K9" s="51">
+        <f t="shared" si="3"/>
+        <v>240580000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <f>'2023-07-07'!C10</f>
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>'2023-07-07'!D10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <f>'2023-07-07'!E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <f>'2023-07-07'!F10</f>
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="22">
+        <f>I10</f>
+        <v>29350000</v>
+      </c>
+      <c r="K10" s="51">
+        <f t="shared" si="3"/>
+        <v>29350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:J11" si="4">SUM(C5:C10)</f>
+        <v>1479774880</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="4"/>
+        <v>928450000</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="4"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="4"/>
+        <v>1157879316</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="4"/>
+        <v>876000000</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="4"/>
+        <v>1609953550</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="4"/>
+        <v>1229868549</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="4"/>
+        <v>1249618549</v>
+      </c>
+      <c r="K11" s="52">
+        <f>SUM(K5:K10)</f>
+        <v>1249620000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="34"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
+        <v>884700000</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
+        <v>108308550</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="33">
+        <f>C13+C14</f>
+        <v>993008550</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="37"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <f>SUM(C31:C39)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="8">
+        <f>C40*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003924B-B213-4AF6-AACC-1987C1A0A42A}">
+  <dimension ref="A3:K41"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="36">
+        <f>C13*C16</f>
+        <v>433503000</v>
+      </c>
+      <c r="D5" s="11">
+        <f>'2023-07-07'!D5</f>
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>'2023-07-07'!E5</f>
+        <v>676000000</v>
+      </c>
+      <c r="F5" s="11">
+        <f>'2023-07-07'!F5</f>
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f>MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>676000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>441267950</v>
+      </c>
+      <c r="J5" s="22">
+        <f>I5</f>
+        <v>441267950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <f>'2023-07-07'!C6</f>
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'2023-07-07'!D6</f>
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>'2023-07-07'!E6</f>
+        <v>176870000</v>
+      </c>
+      <c r="F6" s="11">
+        <f>'2023-07-07'!F6</f>
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G10" si="0">MIN(C6:F6)</f>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H10" si="1">MAX(C6:F6)</f>
+        <v>176870000</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I10" si="2">AVERAGE(C6:F6)</f>
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
+        <f>I6</f>
+        <v>134560610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'2023-07-07'!C7</f>
+        <v>120000000</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'2023-07-07'!D7</f>
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>'2023-07-07'!E7</f>
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <f>'2023-07-07'!F7</f>
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>126000000</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>120330000</v>
+      </c>
+      <c r="J7" s="22">
+        <f>I7</f>
+        <v>120330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31">
+        <f>'2023-07-07'!C8+'2023-07-07'!C11</f>
+        <v>198766330</v>
+      </c>
+      <c r="D8" s="31">
+        <f>'2023-07-07'!D8+'2023-07-07'!D11</f>
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="31">
+        <f>'2023-07-07'!E8+'2023-07-07'!E11</f>
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'2023-07-07'!F8+'2023-07-07'!F11</f>
+        <v>253600000</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>167480000</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>253600000</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="2"/>
+        <v>206274082.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>ADDED!C8+I8</f>
+        <v>226024082.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="38">
+        <f>C15-C5</f>
+        <v>559505550</v>
+      </c>
+      <c r="D9" s="27">
+        <f>'2023-07-07'!D9</f>
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="27">
+        <f>'2023-07-07'!E9</f>
+        <v>200000000</v>
+      </c>
+      <c r="F9" s="27">
+        <f>'2023-07-07'!F9</f>
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>134750000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>559505550</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>298085906.5</v>
+      </c>
+      <c r="J9" s="22">
+        <f>I9</f>
+        <v>298085906.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <f>'2023-07-07'!C10</f>
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>'2023-07-07'!D10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <f>'2023-07-07'!E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <f>'2023-07-07'!F10</f>
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="22">
+        <f>I10</f>
+        <v>29350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:J11" si="3">SUM(C5:C10)</f>
+        <v>1479774880</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="3"/>
+        <v>928450000</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="3"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>1157879316</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="3"/>
+        <v>876000000</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="3"/>
+        <v>1839975550</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="3"/>
+        <v>1229868549</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="3"/>
+        <v>1249618549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="34"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
+        <v>884700000</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>554067200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
+        <v>108308550</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="33">
+        <f>C13+C14</f>
+        <v>993008550</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="35">
+        <v>0.49</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="37"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <f>SUM(C31:C39)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="8">
+        <f>C40*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56F082C-947D-411E-9FE7-C6AD311F2FAE}">
+  <dimension ref="A3:K41"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="36">
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <f>'2023-07-07'!D5</f>
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>'2023-07-07'!E5</f>
+        <v>676000000</v>
+      </c>
+      <c r="F5" s="11">
+        <f>'2023-07-07'!F5</f>
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f>MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>676000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>439942200</v>
+      </c>
+      <c r="J5" s="22">
+        <f>I5</f>
+        <v>439942200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <f>'2023-07-07'!C6</f>
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'2023-07-07'!D6</f>
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>'2023-07-07'!E6</f>
+        <v>176870000</v>
+      </c>
+      <c r="F6" s="11">
+        <f>'2023-07-07'!F6</f>
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G10" si="0">MIN(C6:F6)</f>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H10" si="1">MAX(C6:F6)</f>
+        <v>176870000</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I10" si="2">AVERAGE(C6:F6)</f>
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
+        <f>I6</f>
+        <v>134560610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'2023-07-07'!C7</f>
+        <v>120000000</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'2023-07-07'!D7</f>
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>'2023-07-07'!E7</f>
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <f>'2023-07-07'!F7</f>
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>126000000</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>120330000</v>
+      </c>
+      <c r="J7" s="22">
+        <f>I7</f>
+        <v>120330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31">
+        <f>'2023-07-07'!C8+'2023-07-07'!C11</f>
+        <v>198766330</v>
+      </c>
+      <c r="D8" s="31">
+        <f>'2023-07-07'!D8+'2023-07-07'!D11</f>
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="31">
+        <f>'2023-07-07'!E8+'2023-07-07'!E11</f>
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'2023-07-07'!F8+'2023-07-07'!F11</f>
+        <v>253600000</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>167480000</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>253600000</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="2"/>
+        <v>206274082.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>ADDED!C8+I8</f>
+        <v>226024082.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21">
+        <f>C15-C5</f>
+        <v>564808550</v>
+      </c>
+      <c r="D9" s="17">
+        <f>'2023-07-07'!D9</f>
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="17">
+        <f>'2023-07-07'!E9</f>
+        <v>200000000</v>
+      </c>
+      <c r="F9" s="17">
+        <f>'2023-07-07'!F9</f>
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>134750000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>564808550</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>299411656.5</v>
+      </c>
+      <c r="J9" s="22">
+        <f>I9</f>
+        <v>299411656.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <f>'2023-07-07'!C10</f>
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>'2023-07-07'!D10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <f>'2023-07-07'!E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <f>'2023-07-07'!F10</f>
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="22">
+        <f>I10</f>
+        <v>29350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:J11" si="3">SUM(C5:C10)</f>
+        <v>1479774880</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="3"/>
+        <v>928450000</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="3"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>1157879316</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="3"/>
+        <v>876000000</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="3"/>
+        <v>1845278550</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="3"/>
+        <v>1229868549</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="3"/>
+        <v>1249618549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="34"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
+        <v>884700000</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>554067200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
+        <v>108308550</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="33">
+        <f>C13+C14</f>
+        <v>993008550</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="35"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="37"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <f>SUM(C31:C39)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="8">
+        <f>C40*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BE8D21-76F8-4235-9215-46C3B24FA6E6}">
   <dimension ref="A4:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,11 +3066,11 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,688 +3620,6 @@
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="8">
         <f>C41*1.07</f>
-        <v>1491381739.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3E756-62F5-447F-9A0F-8FE2A85658FD}">
-  <dimension ref="A4:K46"/>
-  <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11">
-        <f>C21</f>
-        <v>428200000</v>
-      </c>
-      <c r="D5" s="11">
-        <v>325250000</v>
-      </c>
-      <c r="E5" s="11">
-        <v>939000000</v>
-      </c>
-      <c r="F5" s="11">
-        <v>330318800</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
-        <v>325250000</v>
-      </c>
-      <c r="H5" s="11">
-        <f>MAX(C5:F5)</f>
-        <v>939000000</v>
-      </c>
-      <c r="I5" s="11">
-        <f>AVERAGE(C5:F5)</f>
-        <v>505692200</v>
-      </c>
-      <c r="J5" s="11">
-        <f>G5</f>
-        <v>325250000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
-        <v>120000000</v>
-      </c>
-      <c r="D6" s="11">
-        <v>115500000</v>
-      </c>
-      <c r="E6" s="11">
-        <f>E21</f>
-        <v>115870000</v>
-      </c>
-      <c r="F6" s="11">
-        <v>125872440</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="0"/>
-        <v>115500000</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
-        <v>125872440</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" ref="I6:J11" si="2">AVERAGE(C6:F6)</f>
-        <v>119310610</v>
-      </c>
-      <c r="J6" s="11">
-        <f>I6</f>
-        <v>119310610</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <f>C28</f>
-        <v>154726500</v>
-      </c>
-      <c r="D7" s="11">
-        <v>125000000</v>
-      </c>
-      <c r="E7" s="11">
-        <f>E24</f>
-        <v>110320000</v>
-      </c>
-      <c r="F7" s="11">
-        <v>126000000</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>110320000</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="1"/>
-        <v>154726500</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="2"/>
-        <v>129011625</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="2"/>
-        <v>117910000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17">
-        <f>C30</f>
-        <v>176388210</v>
-      </c>
-      <c r="D8" s="17">
-        <v>205250000</v>
-      </c>
-      <c r="E8" s="17">
-        <f>E25</f>
-        <v>82740000</v>
-      </c>
-      <c r="F8" s="17">
-        <v>39471480</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="0"/>
-        <v>39471480</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="1"/>
-        <v>205250000</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="2"/>
-        <v>125962422.5</v>
-      </c>
-      <c r="J8" s="17">
-        <f>H8</f>
-        <v>205250000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="11">
-        <f>C34</f>
-        <v>456500000</v>
-      </c>
-      <c r="D9" s="11">
-        <v>134750000</v>
-      </c>
-      <c r="E9" s="11">
-        <f>E26</f>
-        <v>82740000</v>
-      </c>
-      <c r="F9" s="17">
-        <v>298088076</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="0"/>
-        <v>82740000</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>456500000</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="2"/>
-        <v>243019519</v>
-      </c>
-      <c r="J9" s="11">
-        <f>I9</f>
-        <v>243019519</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11">
-        <v>48000000</v>
-      </c>
-      <c r="D10" s="11">
-        <f>E10</f>
-        <v>22700000</v>
-      </c>
-      <c r="E10" s="11">
-        <v>22700000</v>
-      </c>
-      <c r="F10" s="11">
-        <v>24000000</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>22700000</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="1"/>
-        <v>48000000</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" si="2"/>
-        <v>29350000</v>
-      </c>
-      <c r="J10" s="11">
-        <f>G10</f>
-        <v>22700000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
-        <v>9600000</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>9600000</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="2"/>
-        <v>9800000</v>
-      </c>
-      <c r="J11" s="11">
-        <f>G11</f>
-        <v>9600000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="16">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="16">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="16">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="16">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="15">
-        <f t="shared" ref="C16:J16" si="3">SUM(C5:C15)</f>
-        <v>1393814710</v>
-      </c>
-      <c r="D16" s="15">
-        <f t="shared" si="3"/>
-        <v>928450000</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" si="3"/>
-        <v>1353370000</v>
-      </c>
-      <c r="F16" s="15">
-        <f t="shared" si="3"/>
-        <v>953350796</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" si="3"/>
-        <v>705581480</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="3"/>
-        <v>1939348940</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" si="3"/>
-        <v>1162146376.5</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="3"/>
-        <v>1062540129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <f>J16*1.07</f>
-        <v>1136917938.03</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1">
-        <v>355000000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>78670000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1">
-        <v>73200000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>37200000</v>
-      </c>
-      <c r="J20" s="4">
-        <f>J8+J12+J13+J14+J15</f>
-        <v>224750000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <f>C19+C20</f>
-        <v>428200000</v>
-      </c>
-      <c r="E21" s="1">
-        <f>E19+E20</f>
-        <v>115870000</v>
-      </c>
-      <c r="J21" s="4">
-        <f>J20/5</f>
-        <v>44950000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="4">
-        <f>J21*3</f>
-        <v>134850000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1">
-        <v>309453000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>275800000</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="4">
-        <f>J20-J22</f>
-        <v>89900000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="7">
-        <f>C23*0.5</f>
-        <v>154726500</v>
-      </c>
-      <c r="E24" s="7">
-        <f>E23*0.4</f>
-        <v>110320000</v>
-      </c>
-      <c r="J24" s="4">
-        <f>J22+J23</f>
-        <v>224750000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <f>C23*0.5</f>
-        <v>154726500</v>
-      </c>
-      <c r="E25" s="7">
-        <f>E23*0.3</f>
-        <v>82740000</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="E26" s="7">
-        <f>E23*0.3</f>
-        <v>82740000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1">
-        <v>21661710</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <f>C24</f>
-        <v>154726500</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1">
-        <f>C25+C27</f>
-        <v>176388210</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1">
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1">
-        <v>390500000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5">
-        <f>C32+C33</f>
-        <v>456500000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <v>355000000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>120000000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <v>309453000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <v>73200000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <v>390500000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <v>21661710</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1">
-        <v>48000000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="4">
-        <f>SUM(C36:C44)</f>
-        <v>1393814710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="8">
-        <f>C45*1.07</f>
         <v>1491381739.7</v>
       </c>
     </row>
@@ -1898,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE034A8-68EE-4374-85DE-3B0749B96868}">
   <dimension ref="A3:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,16 +3651,16 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,8 +3850,8 @@
         <v>240000000</v>
       </c>
       <c r="K8" s="11">
-        <f>J8+ADDED!C8</f>
-        <v>259750000</v>
+        <f>J8+'VER1 (2)'!A1</f>
+        <v>240000000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2273,7 +4008,7 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>1097540129</v>
+        <v>1077790129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2441,14 +4176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6D22A-C942-4650-93DD-49A7BCC8BA62}">
   <dimension ref="B4:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2477,7 +4212,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16">
         <v>10000000</v>
@@ -2495,289 +4230,695 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56159814-CF38-48A1-8CA9-D4DCB22F8666}">
-  <dimension ref="B3:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3E756-62F5-447F-9A0F-8FE2A85658FD}">
+  <dimension ref="A4:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E4:E9"/>
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="C5" s="11">
+        <f>C21</f>
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
         <v>939000000</v>
       </c>
-      <c r="E4" s="11">
-        <v>520000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="F5" s="11">
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G11" si="0">MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>939000000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>505692200</v>
+      </c>
+      <c r="J5" s="11">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>E21</f>
         <v>115870000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F6" s="11">
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
+        <v>125872440</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:J11" si="2">AVERAGE(C6:F6)</f>
+        <v>119310610</v>
+      </c>
+      <c r="J6" s="11">
+        <f>I6</f>
+        <v>119310610</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <f>C28</f>
+        <v>154726500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>E24</f>
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>154726500</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>129011625</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>117910000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17">
+        <f>C30</f>
+        <v>176388210</v>
+      </c>
+      <c r="D8" s="17">
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="17">
+        <f>E25</f>
+        <v>82740000</v>
+      </c>
+      <c r="F8" s="17">
+        <v>39471480</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>39471480</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>205250000</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>125962422.5</v>
+      </c>
+      <c r="J8" s="17">
+        <f>H8</f>
+        <v>205250000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <f>C34</f>
+        <v>456500000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <f>E26</f>
+        <v>82740000</v>
+      </c>
+      <c r="F9" s="17">
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>82740000</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>456500000</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>243019519</v>
+      </c>
+      <c r="J9" s="11">
+        <f>I9</f>
+        <v>243019519</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="11">
+        <f>G10</f>
+        <v>22700000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>9600000</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>9800000</v>
+      </c>
+      <c r="J11" s="11">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="16">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="16">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="16">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:J16" si="3">SUM(C5:C15)</f>
+        <v>1393814710</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="3"/>
+        <v>928450000</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="3"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="3"/>
+        <v>953350796</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="3"/>
+        <v>705581480</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="3"/>
+        <v>1939348940</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="3"/>
+        <v>1162146376.5</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="3"/>
+        <v>1062540129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <f>J16*1.07</f>
+        <v>1136917938.03</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>355000000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>78670000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>73200000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>37200000</v>
+      </c>
+      <c r="J20" s="4">
+        <f>J8+J12+J13+J14+J15</f>
+        <v>224750000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C19+C20</f>
+        <v>428200000</v>
+      </c>
+      <c r="E21" s="1">
+        <f>E19+E20</f>
         <v>115870000</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="J21" s="4">
+        <f>J20/5</f>
+        <v>44950000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="4">
+        <f>J21*3</f>
+        <v>134850000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>309453000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>275800000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="4">
+        <f>J20-J22</f>
+        <v>89900000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C23*0.5</f>
+        <v>154726500</v>
+      </c>
+      <c r="E24" s="7">
+        <f>E23*0.4</f>
+        <v>110320000</v>
+      </c>
+      <c r="J24" s="4">
+        <f>J22+J23</f>
+        <v>224750000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <f>C23*0.5</f>
+        <v>154726500</v>
+      </c>
+      <c r="E25" s="7">
+        <f>E23*0.3</f>
+        <v>82740000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="E26" s="7">
+        <f>E23*0.3</f>
+        <v>82740000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C24</f>
+        <v>154726500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C25+C27</f>
+        <v>176388210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>110320000</v>
-      </c>
-      <c r="E6" s="11">
-        <v>110320000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17">
-        <v>82740000</v>
-      </c>
-      <c r="E7" s="17">
-        <v>251000000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="11">
-        <v>82740000</v>
-      </c>
-      <c r="E8" s="11">
-        <v>321000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11">
-        <v>22700000</v>
-      </c>
-      <c r="E9" s="11">
-        <v>35180000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="15">
-        <f t="shared" ref="D11:E11" si="0">SUM(D4:D10)</f>
-        <v>1353370000</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>1353370000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
+      <c r="C34" s="5">
+        <f>C32+C33</f>
+        <v>456500000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>355000000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>309453000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <f>SUM(C36:C44)</f>
+        <v>1393814710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="8">
+        <f>C45*1.07</f>
+        <v>1491381739.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0367729-8004-47C0-BA84-7B9AD7E7F668}">
-  <dimension ref="B3:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1689F51-BD24-4282-9539-DBC370D84064}">
+  <dimension ref="A3:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>330318800</v>
-      </c>
-      <c r="E4" s="11">
-        <v>330318800</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11">
-        <v>125872440</v>
-      </c>
-      <c r="E5" s="11">
-        <v>125872440</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>126000000</v>
-      </c>
-      <c r="E6" s="11">
-        <v>126000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17">
-        <v>39471480</v>
-      </c>
-      <c r="E7" s="17">
-        <v>240000000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="17">
-        <v>298088076</v>
-      </c>
-      <c r="E8" s="17">
-        <v>298088076</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11">
-        <v>24000000</v>
-      </c>
-      <c r="E9" s="11">
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11">
-        <v>9600000</v>
-      </c>
-      <c r="E10" s="11">
-        <v>9600000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="15">
-        <f t="shared" ref="D11" si="0">SUM(D4:D10)</f>
-        <v>953350796</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" ref="E11" si="1">SUM(E4:E10)</f>
-        <v>1153879316</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1689F51-BD24-4282-9539-DBC370D84064}">
-  <dimension ref="A3:K42"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,25 +4929,27 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="12" t="s">
@@ -2831,14 +4974,16 @@
         <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -2848,8 +4993,8 @@
       <c r="D5" s="11">
         <v>325250000</v>
       </c>
-      <c r="E5" s="11">
-        <v>520000000</v>
+      <c r="E5" s="20">
+        <v>676000000</v>
       </c>
       <c r="F5" s="11">
         <v>330318800</v>
@@ -2860,22 +5005,25 @@
       </c>
       <c r="H5" s="11">
         <f>MAX(C5:F5)</f>
-        <v>520000000</v>
+        <v>676000000</v>
       </c>
       <c r="I5" s="11">
         <f>AVERAGE(C5:F5)</f>
-        <v>400942200</v>
-      </c>
-      <c r="J5" s="11">
+        <v>439942200</v>
+      </c>
+      <c r="J5" s="22">
         <f>G5</f>
         <v>325250000</v>
       </c>
-      <c r="K5" s="11">
-        <f>J5</f>
+      <c r="K5" s="22">
+        <f>G5</f>
         <v>325250000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -2889,7 +5037,7 @@
         <v>115500000</v>
       </c>
       <c r="E6" s="11">
-        <v>115870000</v>
+        <v>176870000</v>
       </c>
       <c r="F6" s="11">
         <v>125872440</v>
@@ -2900,22 +5048,25 @@
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
-        <v>125872440</v>
+        <v>176870000</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" ref="I6:I11" si="2">AVERAGE(C6:F6)</f>
-        <v>119310610</v>
-      </c>
-      <c r="J6" s="11">
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" ref="J6:J10" si="3">G6</f>
         <v>115500000</v>
       </c>
-      <c r="K6" s="11">
-        <f>J6</f>
+      <c r="K6" s="22">
+        <f>G6</f>
         <v>115500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -2946,16 +5097,19 @@
         <f t="shared" si="2"/>
         <v>129011625</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="22">
         <f t="shared" si="3"/>
         <v>110320000</v>
       </c>
-      <c r="K7" s="11">
-        <f>J7</f>
-        <v>110320000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="22">
+        <f>I7</f>
+        <v>129011625</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2968,38 +5122,41 @@
       <c r="D8" s="17">
         <v>205250000</v>
       </c>
-      <c r="E8" s="17">
-        <v>251000000</v>
-      </c>
-      <c r="F8" s="17">
-        <v>240000000</v>
+      <c r="E8" s="21">
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="21">
+        <v>244000000</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>176388210</v>
+        <v>167480000</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>251000000</v>
+        <v>244000000</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="2"/>
-        <v>218159552.5</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="3"/>
-        <v>176388210</v>
-      </c>
-      <c r="K8" s="11">
-        <f>J8+ADDED!C8</f>
-        <v>196138210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>198279552.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>G8+ADDED!C8</f>
+        <v>187230000</v>
+      </c>
+      <c r="K8" s="22">
+        <f>H8</f>
+        <v>244000000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="11">
@@ -3009,7 +5166,7 @@
         <v>134750000</v>
       </c>
       <c r="E9" s="11">
-        <v>321000000</v>
+        <v>200000000</v>
       </c>
       <c r="F9" s="17">
         <v>298088076</v>
@@ -3024,18 +5181,21 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>302584519</v>
-      </c>
-      <c r="J9" s="11">
+        <v>272334519</v>
+      </c>
+      <c r="J9" s="22">
         <f t="shared" si="3"/>
         <v>134750000</v>
       </c>
-      <c r="K9" s="11">
-        <f t="shared" ref="K9:K11" si="4">J9</f>
-        <v>134750000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="22">
+        <f>I9</f>
+        <v>272334519</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -3045,19 +5205,16 @@
       <c r="C10" s="11">
         <v>48000000</v>
       </c>
-      <c r="D10" s="11">
-        <f>E10</f>
-        <v>35180000</v>
-      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="11">
-        <v>35180000</v>
+        <v>22700000</v>
       </c>
       <c r="F10" s="11">
         <v>24000000</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>24000000</v>
+        <v>22700000</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
@@ -3065,18 +5222,21 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>35590000</v>
-      </c>
-      <c r="J10" s="11">
+        <v>31566666.666666668</v>
+      </c>
+      <c r="J10" s="22">
         <f t="shared" si="3"/>
-        <v>24000000</v>
-      </c>
-      <c r="K10" s="11">
-        <f t="shared" si="4"/>
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22700000</v>
+      </c>
+      <c r="K10" s="22">
+        <f>G10</f>
+        <v>22700000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -3103,56 +5263,59 @@
         <f t="shared" si="2"/>
         <v>9800000</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="22">
         <f>G11</f>
         <v>9600000</v>
       </c>
-      <c r="K11" s="11">
-        <f t="shared" si="4"/>
+      <c r="K11" s="22">
+        <f>G11</f>
         <v>9600000</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="15">
-        <f t="shared" ref="C12:K12" si="5">SUM(C5:C11)</f>
+        <f t="shared" ref="C12:K12" si="4">SUM(C5:C11)</f>
         <v>1393814710</v>
       </c>
       <c r="D12" s="15">
-        <f t="shared" si="5"/>
-        <v>940930000</v>
+        <f t="shared" si="4"/>
+        <v>905750000</v>
       </c>
       <c r="E12" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1353370000</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" si="5"/>
-        <v>1153879316</v>
+        <f t="shared" si="4"/>
+        <v>1157879316</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" si="5"/>
-        <v>895808210</v>
+        <f t="shared" si="4"/>
+        <v>885600000</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="5"/>
-        <v>1566098940</v>
+        <f t="shared" si="4"/>
+        <v>1766096500</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" si="5"/>
-        <v>1215398506.5</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="5"/>
-        <v>895808210</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="5"/>
-        <v>915558210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1215495173.1666667</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="4"/>
+        <v>905350000</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="4"/>
+        <v>1118396144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <f>SUM(C8:C9)</f>
         <v>632888210</v>
@@ -3163,11 +5326,11 @@
       </c>
       <c r="E13" s="1">
         <f>SUM(E8:E9)</f>
-        <v>572000000</v>
+        <v>367480000</v>
       </c>
       <c r="F13" s="1">
         <f>SUM(F8:F9)</f>
-        <v>538088076</v>
+        <v>542088076</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3175,7 +5338,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3186,13 +5349,22 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f>C9/5</f>
+        <v>91300000</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C5*0.2</f>
+        <v>85640000</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3313,47 +5485,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D03D2F-CBEB-471A-92CE-BDFFB508F28B}">
-  <dimension ref="A3:J42"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DDED01-C739-46D4-9928-4ACF3F2EBAE9}">
+  <dimension ref="A4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>428200000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>428200000</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>154726500</v>
+      </c>
+      <c r="D7" s="27">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17">
+        <v>176388210</v>
+      </c>
+      <c r="D8" s="27">
+        <v>270000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <v>456500000</v>
+      </c>
+      <c r="D9" s="27">
+        <v>317614710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="28">
+        <v>48000000</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="15">
+        <f t="shared" ref="C12:D12" si="0">SUM(C5:C11)</f>
+        <v>1393814710</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>1393814710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DB000-722F-4F9C-A989-A45937F3B2D0}">
+  <dimension ref="A3:L42"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
@@ -3373,22 +5699,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="11">
-        <v>428200000</v>
+        <v>884700000</v>
       </c>
       <c r="D5" s="11">
         <v>325250000</v>
       </c>
-      <c r="E5" s="11">
-        <v>520000000</v>
+      <c r="E5" s="20">
+        <v>676000000</v>
       </c>
       <c r="F5" s="11">
         <v>330318800</v>
@@ -3399,18 +5730,25 @@
       </c>
       <c r="H5" s="11">
         <f>MAX(C5:F5)</f>
-        <v>520000000</v>
+        <v>884700000</v>
       </c>
       <c r="I5" s="11">
         <f>AVERAGE(C5:F5)</f>
-        <v>400942200</v>
-      </c>
-      <c r="J5" s="11">
+        <v>554067200</v>
+      </c>
+      <c r="J5" s="22">
         <f>G5</f>
         <v>325250000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="22">
+        <f>G5</f>
+        <v>325250000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -3424,7 +5762,7 @@
         <v>115500000</v>
       </c>
       <c r="E6" s="11">
-        <v>115870000</v>
+        <v>176870000</v>
       </c>
       <c r="F6" s="11">
         <v>125872440</v>
@@ -3435,18 +5773,25 @@
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H11" si="1">MAX(C6:F6)</f>
-        <v>125872440</v>
+        <v>176870000</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" ref="I6:I11" si="2">AVERAGE(C6:F6)</f>
-        <v>119310610</v>
-      </c>
-      <c r="J6" s="11">
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" ref="J6:J10" si="3">G6</f>
         <v>115500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="22">
+        <f>G6</f>
+        <v>115500000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -3454,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="11">
-        <v>154726500</v>
+        <v>120000000</v>
       </c>
       <c r="D7" s="11">
         <v>125000000</v>
@@ -3471,18 +5816,25 @@
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>154726500</v>
+        <v>126000000</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="2"/>
-        <v>129011625</v>
-      </c>
-      <c r="J7" s="11">
+        <v>120330000</v>
+      </c>
+      <c r="J7" s="22">
         <f t="shared" si="3"/>
         <v>110320000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="22">
+        <f>I7</f>
+        <v>120330000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -3490,71 +5842,85 @@
         <v>22</v>
       </c>
       <c r="C8" s="17">
-        <v>176388210</v>
+        <v>188766330</v>
       </c>
       <c r="D8" s="17">
         <v>205250000</v>
       </c>
-      <c r="E8" s="17">
-        <v>251000000</v>
-      </c>
-      <c r="F8" s="17">
-        <v>240000000</v>
+      <c r="E8" s="21">
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="21">
+        <v>244000000</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>176388210</v>
+        <v>167480000</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>251000000</v>
+        <v>244000000</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="2"/>
-        <v>218159552.5</v>
-      </c>
-      <c r="J8" s="11">
+        <v>201374082.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>G8+[1]Sheet1!$A$2</f>
+        <v>167480000</v>
+      </c>
+      <c r="K8" s="22">
         <f>H8</f>
-        <v>251000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>244000000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="11">
-        <v>456500000</v>
+        <v>108308550</v>
       </c>
       <c r="D9" s="11">
         <v>134750000</v>
       </c>
       <c r="E9" s="11">
-        <v>321000000</v>
+        <v>200000000</v>
       </c>
       <c r="F9" s="17">
         <v>298088076</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>134750000</v>
+        <v>108308550</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>456500000</v>
+        <v>298088076</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>302584519</v>
-      </c>
-      <c r="J9" s="11">
+        <v>185286656.5</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>108308550</v>
+      </c>
+      <c r="K9" s="22">
         <f>I9</f>
-        <v>302584519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185286656.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -3566,17 +5932,17 @@
       </c>
       <c r="D10" s="11">
         <f>E10</f>
-        <v>35180000</v>
+        <v>22700000</v>
       </c>
       <c r="E10" s="11">
-        <v>35180000</v>
+        <v>22700000</v>
       </c>
       <c r="F10" s="11">
         <v>24000000</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>24000000</v>
+        <v>22700000</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
@@ -3584,14 +5950,21 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>35590000</v>
-      </c>
-      <c r="J10" s="11">
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="22">
         <f t="shared" si="3"/>
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22700000</v>
+      </c>
+      <c r="K10" s="22">
+        <f>G10</f>
+        <v>22700000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -3618,21 +5991,28 @@
         <f t="shared" si="2"/>
         <v>9800000</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="22">
         <f>G11</f>
         <v>9600000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="22">
+        <f>G11</f>
+        <v>9600000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="15">
-        <f t="shared" ref="C12:J12" si="4">SUM(C5:C11)</f>
-        <v>1393814710</v>
+        <f t="shared" ref="C12:K12" si="4">SUM(C5:C11)</f>
+        <v>1479774880</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="4"/>
-        <v>940930000</v>
+        <v>928450000</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
@@ -3640,49 +6020,46 @@
       </c>
       <c r="F12" s="15">
         <f t="shared" si="4"/>
-        <v>1153879316</v>
+        <v>1157879316</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="4"/>
-        <v>895808210</v>
+        <v>859158550</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="4"/>
-        <v>1566098940</v>
+        <v>1787658076</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="4"/>
-        <v>1215398506.5</v>
-      </c>
-      <c r="J12" s="15">
+        <v>1234768549</v>
+      </c>
+      <c r="J12" s="23">
         <f t="shared" si="4"/>
-        <v>1138254519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>859158550</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="4"/>
+        <v>1022666656.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <f>SUM(C8:C9)</f>
-        <v>632888210</v>
-      </c>
-      <c r="D13" s="1">
-        <f>SUM(D8:D9)</f>
-        <v>340000000</v>
-      </c>
-      <c r="E13" s="1">
-        <f>SUM(E8:E9)</f>
-        <v>572000000</v>
-      </c>
-      <c r="F13" s="1">
-        <f>SUM(F8:F9)</f>
-        <v>538088076</v>
-      </c>
+        <v>154726500</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>176388210</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3690,52 +6067,590 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>456500000</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C14:C15)</f>
+        <v>632888210</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <f>C15+C14+C13</f>
+        <v>787614710</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <f>C12*1.07</f>
+        <v>1583359121.6000001</v>
+      </c>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>73200000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>390500000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>21661710</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <f>SUM(C32:C40)</f>
+        <v>609361710</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <f>C41*1.07</f>
+        <v>652017029.70000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2489CAE-D79E-4806-B08A-26D703CDE36D}">
+  <dimension ref="A3:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <f>'2023-07-07'!C5</f>
+        <v>884700000</v>
+      </c>
+      <c r="D5" s="11">
+        <f>'2023-07-07'!D5</f>
+        <v>325250000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>'2023-07-07'!E5</f>
+        <v>676000000</v>
+      </c>
+      <c r="F5" s="11">
+        <f>'2023-07-07'!F5</f>
+        <v>330318800</v>
+      </c>
+      <c r="G5" s="11">
+        <f>MIN(C5:F5)</f>
+        <v>325250000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>MAX(C5:F5)</f>
+        <v>884700000</v>
+      </c>
+      <c r="I5" s="11">
+        <f>AVERAGE(C5:F5)</f>
+        <v>554067200</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:K7" si="0">I5</f>
+        <v>554067200</v>
+      </c>
+      <c r="K5" s="41">
+        <f t="shared" si="0"/>
+        <v>554067200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <f>'2023-07-07'!C6</f>
+        <v>120000000</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'2023-07-07'!D6</f>
+        <v>115500000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>'2023-07-07'!E6</f>
+        <v>176870000</v>
+      </c>
+      <c r="F6" s="11">
+        <f>'2023-07-07'!F6</f>
+        <v>125872440</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G10" si="1">MIN(C6:F6)</f>
+        <v>115500000</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H10" si="2">MAX(C6:F6)</f>
+        <v>176870000</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I10" si="3">AVERAGE(C6:F6)</f>
+        <v>134560610</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>134560610</v>
+      </c>
+      <c r="K6" s="41">
+        <f t="shared" si="0"/>
+        <v>134560610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'2023-07-07'!C7</f>
+        <v>120000000</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'2023-07-07'!D7</f>
+        <v>125000000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>'2023-07-07'!E7</f>
+        <v>110320000</v>
+      </c>
+      <c r="F7" s="11">
+        <f>'2023-07-07'!F7</f>
+        <v>126000000</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>110320000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="2"/>
+        <v>126000000</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="3"/>
+        <v>120330000</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="0"/>
+        <v>120330000</v>
+      </c>
+      <c r="K7" s="41">
+        <f t="shared" si="0"/>
+        <v>120330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31">
+        <f>'2023-07-07'!C8+'2023-07-07'!C11</f>
+        <v>198766330</v>
+      </c>
+      <c r="D8" s="31">
+        <f>'2023-07-07'!D8+'2023-07-07'!D11</f>
+        <v>205250000</v>
+      </c>
+      <c r="E8" s="31">
+        <f>'2023-07-07'!E8+'2023-07-07'!E11</f>
+        <v>167480000</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'2023-07-07'!F8+'2023-07-07'!F11</f>
+        <v>253600000</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>167480000</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="2"/>
+        <v>253600000</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="3"/>
+        <v>206274082.5</v>
+      </c>
+      <c r="J8" s="22">
+        <f>ADDED!C8+I8</f>
+        <v>226024082.5</v>
+      </c>
+      <c r="K8" s="41">
+        <f>J8</f>
+        <v>226024082.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <f>'2023-07-07'!C9</f>
+        <v>108308550</v>
+      </c>
+      <c r="D9" s="11">
+        <f>'2023-07-07'!D9</f>
+        <v>134750000</v>
+      </c>
+      <c r="E9" s="11">
+        <f>'2023-07-07'!E9</f>
+        <v>200000000</v>
+      </c>
+      <c r="F9" s="11">
+        <f>'2023-07-07'!F9</f>
+        <v>298088076</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>108308550</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="2"/>
+        <v>298088076</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="3"/>
+        <v>185286656.5</v>
+      </c>
+      <c r="J9" s="22">
+        <f>I9</f>
+        <v>185286656.5</v>
+      </c>
+      <c r="K9" s="41">
+        <f>J9</f>
+        <v>185286656.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <f>'2023-07-07'!C10</f>
+        <v>48000000</v>
+      </c>
+      <c r="D10" s="11">
+        <f>'2023-07-07'!D10</f>
+        <v>22700000</v>
+      </c>
+      <c r="E10" s="11">
+        <f>'2023-07-07'!E10</f>
+        <v>22700000</v>
+      </c>
+      <c r="F10" s="11">
+        <f>'2023-07-07'!F10</f>
+        <v>24000000</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>22700000</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="3"/>
+        <v>29350000</v>
+      </c>
+      <c r="J10" s="22">
+        <f>I10</f>
+        <v>29350000</v>
+      </c>
+      <c r="K10" s="41">
+        <f>J10</f>
+        <v>29350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:J11" si="4">SUM(C5:C10)</f>
+        <v>1479774880</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="4"/>
+        <v>928450000</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="4"/>
+        <v>1353370000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="4"/>
+        <v>1157879316</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="4"/>
+        <v>849558550</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="4"/>
+        <v>1787258076</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="4"/>
+        <v>1229868549</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="4"/>
+        <v>1249618549</v>
+      </c>
+      <c r="K11" s="40">
+        <f>SUM(K5:K10)</f>
+        <v>1249618549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="J14" s="50">
+        <f>ROUND(J5,-3)</f>
+        <v>554067000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="1"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
@@ -3750,11 +6665,11 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
@@ -3763,47 +6678,44 @@
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>73200000</v>
+      </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
-        <v>73200000</v>
+        <v>390500000</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
-        <v>390500000</v>
+        <v>21661710</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
-        <v>21661710</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
-        <v>48000000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
-        <v>66000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <v>10000000</v>
+      <c r="C40" s="4">
+        <f>SUM(C31:C39)</f>
+        <v>609361710</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4">
-        <f>SUM(C32:C40)</f>
-        <v>609361710</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="8">
-        <f>C41*1.07</f>
+      <c r="C41" s="8">
+        <f>C40*1.07</f>
         <v>652017029.70000005</v>
       </c>
     </row>

--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120786ED-8B49-4909-BE1A-A85D57ADEBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07889372-086C-4825-AC86-BC9C531CDE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="450" windowWidth="25770" windowHeight="15180" tabRatio="785" activeTab="10" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
+    <workbookView xWindow="1095" yWindow="390" windowWidth="27600" windowHeight="13800" tabRatio="785" firstSheet="1" activeTab="13" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-07-07 (2)" sheetId="17" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="2023-07-07c" sheetId="14" r:id="rId11"/>
     <sheet name="2023-07-07d" sheetId="16" r:id="rId12"/>
     <sheet name="2023-07-07e" sheetId="15" r:id="rId13"/>
+    <sheet name="2023-10-28" sheetId="18" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="80">
   <si>
     <t>พรีไซส์</t>
   </si>
@@ -219,6 +220,78 @@
   </si>
   <si>
     <t>จำนวนเงินรวม</t>
+  </si>
+  <si>
+    <t>ค่าสนับสนุนการใช้งานและบำรุงรักษา 1+4 ปี</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>ประกันผลงาน</t>
+  </si>
+  <si>
+    <t>ค่าจ้าง + 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design completion/acceptance </t>
+  </si>
+  <si>
+    <t>Development completion/acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT completion/acceptance </t>
+  </si>
+  <si>
+    <t>HW delivery at PEA</t>
+  </si>
+  <si>
+    <t>SAT completion/acceptance</t>
+  </si>
+  <si>
+    <t>TOAC</t>
+  </si>
+  <si>
+    <t>warranty and maintenance</t>
+  </si>
+  <si>
+    <t>บำรุงรักษา</t>
+  </si>
+  <si>
+    <t>สมมุติยื่นข้อเสนอ</t>
+  </si>
+  <si>
+    <t>แผนงาน</t>
+  </si>
+  <si>
+    <t>ออกแบบ</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>พัฒนา</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Making plan</t>
   </si>
 </sst>
 </file>
@@ -344,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +433,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +516,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,12 +583,6 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -499,6 +590,34 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1503,10 +1622,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="23">
         <v>1249618549</v>
       </c>
@@ -1558,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FC0308-2A18-4F5D-B8C0-27FC72DA37CC}">
   <dimension ref="A3:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1775,7 @@
         <f>I5</f>
         <v>498773450</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="49">
         <f>ROUND(J5,-3)+1000</f>
         <v>498774000</v>
       </c>
@@ -1700,7 +1819,7 @@
         <f>I6</f>
         <v>134560610</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="49">
         <f t="shared" ref="K6:K10" si="3">ROUND(J6,-3)</f>
         <v>134561000</v>
       </c>
@@ -1744,7 +1863,7 @@
         <f>I7</f>
         <v>120330000</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="49">
         <f t="shared" si="3"/>
         <v>120330000</v>
       </c>
@@ -1788,7 +1907,7 @@
         <f>ADDED!C8+I8</f>
         <v>226024082.5</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="49">
         <f>ROUND(J8,-3)+1000</f>
         <v>226025000</v>
       </c>
@@ -1832,7 +1951,7 @@
         <f>I9</f>
         <v>240580406.5</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="49">
         <f t="shared" si="3"/>
         <v>240580000</v>
       </c>
@@ -1876,7 +1995,7 @@
         <f>I10</f>
         <v>29350000</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="49">
         <f t="shared" si="3"/>
         <v>29350000</v>
       </c>
@@ -1916,7 +2035,7 @@
         <f t="shared" si="4"/>
         <v>1249618549</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="50">
         <f>SUM(K5:K10)</f>
         <v>1249620000</v>
       </c>
@@ -3050,6 +3169,676 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD39726-81BA-46B0-BEB2-CC62B43D9108}">
+  <dimension ref="A2:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="53">
+        <f>D15</f>
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="53">
+        <f>D16</f>
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="53">
+        <f>D17</f>
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="53">
+        <f>D18</f>
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="53">
+        <f>D19</f>
+        <v>0.12</v>
+      </c>
+      <c r="P2" s="53">
+        <f>D20</f>
+        <v>0.18</v>
+      </c>
+      <c r="Q2" s="53">
+        <f>D21</f>
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="53">
+        <f>D22</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="64" t="str">
+        <f>F15</f>
+        <v>แผนงาน</v>
+      </c>
+      <c r="L3" s="64" t="str">
+        <f>F16</f>
+        <v>ออกแบบ</v>
+      </c>
+      <c r="M3" s="64" t="str">
+        <f>F17</f>
+        <v>พัฒนา</v>
+      </c>
+      <c r="N3" s="64" t="str">
+        <f>F18</f>
+        <v>FAT</v>
+      </c>
+      <c r="O3" s="64" t="str">
+        <f>F19</f>
+        <v>HW</v>
+      </c>
+      <c r="P3" s="64" t="str">
+        <f>F20</f>
+        <v>SAT</v>
+      </c>
+      <c r="Q3" s="64" t="str">
+        <f>F21</f>
+        <v>GO</v>
+      </c>
+      <c r="R3" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="57">
+        <v>325250000</v>
+      </c>
+      <c r="D4" s="58">
+        <f>ROUND(C4/$C$10,2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="E4" s="66">
+        <f>C4</f>
+        <v>325250000</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="K4" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="51">
+        <f>SUM(K4:R4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="57">
+        <v>115500000</v>
+      </c>
+      <c r="D5" s="58">
+        <f>ROUND(C5/$C$10,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="66">
+        <f t="shared" ref="E5:E7" si="0">C5</f>
+        <v>115500000</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="51">
+        <f t="shared" ref="S5:S9" si="1">SUM(K5:R5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57">
+        <v>110320000</v>
+      </c>
+      <c r="D6" s="58">
+        <f>ROUND(C6/$C$10,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="66">
+        <f t="shared" si="0"/>
+        <v>110320000</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="K6" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="M6" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="57">
+        <v>167480000</v>
+      </c>
+      <c r="D7" s="58">
+        <f t="shared" ref="D7:D9" si="2">ROUND(C7/$C$10,2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="E7" s="66">
+        <f t="shared" si="0"/>
+        <v>167480000</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="65"/>
+      <c r="S7" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="57">
+        <v>210946000</v>
+      </c>
+      <c r="D8" s="58">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="E8" s="66">
+        <f>C8/5</f>
+        <v>42189200</v>
+      </c>
+      <c r="F8" s="66">
+        <f>$E8</f>
+        <v>42189200</v>
+      </c>
+      <c r="G8" s="66">
+        <f>$E8</f>
+        <v>42189200</v>
+      </c>
+      <c r="H8" s="66">
+        <f>$E8</f>
+        <v>42189200</v>
+      </c>
+      <c r="I8" s="66">
+        <f>$E8</f>
+        <v>42189200</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65">
+        <v>1</v>
+      </c>
+      <c r="S8" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="57">
+        <v>22700000</v>
+      </c>
+      <c r="D9" s="58">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="66">
+        <f>C9</f>
+        <v>22700000</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65">
+        <v>1</v>
+      </c>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57">
+        <f>SUM(C4:C9)</f>
+        <v>952196000</v>
+      </c>
+      <c r="D10" s="58">
+        <f>SUM(D4:D9)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="66">
+        <f>SUM(E4:E9)</f>
+        <v>783439200</v>
+      </c>
+      <c r="F10" s="66">
+        <f t="shared" ref="F10:I10" si="3">SUM(F4:F9)</f>
+        <v>42189200</v>
+      </c>
+      <c r="G10" s="66">
+        <f t="shared" si="3"/>
+        <v>42189200</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" si="3"/>
+        <v>42189200</v>
+      </c>
+      <c r="I10" s="66">
+        <f t="shared" si="3"/>
+        <v>42189200</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54">
+        <f>C10*0.05</f>
+        <v>47609800</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="52">
+        <f>C10*1.07</f>
+        <v>1018849720</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="68">
+        <f>E11/$C10</f>
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="68">
+        <f>F10/$C10</f>
+        <v>4.4307264470760221E-2</v>
+      </c>
+      <c r="G12" s="68">
+        <f t="shared" ref="G12:I12" si="4">G10/$C10</f>
+        <v>4.4307264470760221E-2</v>
+      </c>
+      <c r="H12" s="68">
+        <f t="shared" si="4"/>
+        <v>4.4307264470760221E-2</v>
+      </c>
+      <c r="I12" s="68">
+        <f t="shared" si="4"/>
+        <v>4.4307264470760221E-2</v>
+      </c>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E13" s="55">
+        <f>E10/C10</f>
+        <v>0.82277094211695911</v>
+      </c>
+      <c r="F13" s="71">
+        <f>SUM(F12:I12)</f>
+        <v>0.17722905788304089</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="34">
+        <v>900000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="62">
+        <f>$C$14*D15</f>
+        <v>45000000</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.08</v>
+      </c>
+      <c r="I15" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="62">
+        <f t="shared" ref="E16:E22" si="5">$C$14*D16</f>
+        <v>90000000</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="61">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="62">
+        <f t="shared" si="5"/>
+        <v>90000000</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.12</v>
+      </c>
+      <c r="I17" s="61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="61">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="62">
+        <f t="shared" si="5"/>
+        <v>135000000</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="61">
+        <v>0.12</v>
+      </c>
+      <c r="I18" s="61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="61">
+        <v>0.12</v>
+      </c>
+      <c r="E19" s="62">
+        <f t="shared" si="5"/>
+        <v>108000000</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="61">
+        <v>0.12</v>
+      </c>
+      <c r="I19" s="61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="61">
+        <v>0.18</v>
+      </c>
+      <c r="E20" s="62">
+        <f t="shared" si="5"/>
+        <v>162000000</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="61">
+        <v>0.18</v>
+      </c>
+      <c r="I20" s="61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="62">
+        <f t="shared" si="5"/>
+        <v>90000000</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="61">
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="62">
+        <f t="shared" si="5"/>
+        <v>180000000</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="61">
+        <v>0.18</v>
+      </c>
+      <c r="I22" s="61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="37">
+        <f>SUM(D15:D22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUM(E15:E22)</f>
+        <v>900000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6602,7 +7391,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="J14" s="50">
+      <c r="J14" s="48">
         <f>ROUND(J5,-3)</f>
         <v>554067000</v>
       </c>

--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07889372-086C-4825-AC86-BC9C531CDE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A989D-78D4-4FFC-B791-358507994443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="390" windowWidth="27600" windowHeight="13800" tabRatio="785" firstSheet="1" activeTab="13" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="81">
   <si>
     <t>พรีไซส์</t>
   </si>
@@ -252,12 +252,6 @@
     <t xml:space="preserve">FAT completion/acceptance </t>
   </si>
   <si>
-    <t>HW delivery at PEA</t>
-  </si>
-  <si>
-    <t>SAT completion/acceptance</t>
-  </si>
-  <si>
     <t>TOAC</t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t>Making plan</t>
+  </si>
+  <si>
+    <t>HW+SAT #1</t>
+  </si>
+  <si>
+    <t>HW+SAT #2</t>
+  </si>
+  <si>
+    <t>8,9,10,11</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -510,13 +513,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -608,6 +622,7 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,7 +632,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1622,10 +1637,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="23">
         <v>1249618549</v>
       </c>
@@ -3177,7 +3192,7 @@
   <dimension ref="A2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,7 +3223,7 @@
       </c>
       <c r="L2" s="53">
         <f>D16</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="53">
         <f>D17</f>
@@ -3220,15 +3235,15 @@
       </c>
       <c r="O2" s="53">
         <f>D19</f>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="P2" s="53">
         <f>D20</f>
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="Q2" s="53">
         <f>D21</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="53">
         <f>D22</f>
@@ -3280,7 +3295,7 @@
         <v>GO</v>
       </c>
       <c r="R3" s="64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3608,17 +3623,17 @@
         <f>E10/C10</f>
         <v>0.82277094211695911</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="72">
         <f>SUM(F12:I12)</f>
         <v>0.17722905788304089</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>900000000</v>
@@ -3629,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61">
@@ -3640,7 +3655,7 @@
         <v>45000000</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="61">
         <v>0.08</v>
@@ -3658,14 +3673,14 @@
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="61">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:E22" si="5">$C$14*D16</f>
-        <v>90000000</v>
+        <v>45000000</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="61">
         <v>0.08</v>
@@ -3690,7 +3705,7 @@
         <v>90000000</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="61">
         <v>0.12</v>
@@ -3715,7 +3730,7 @@
         <v>135000000</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="61">
         <v>0.12</v>
@@ -3729,18 +3744,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="61">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E19" s="62">
         <f t="shared" si="5"/>
-        <v>108000000</v>
+        <v>135000000</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H19" s="61">
         <v>0.12</v>
@@ -3754,18 +3769,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="61">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="E20" s="62">
         <f t="shared" si="5"/>
-        <v>162000000</v>
+        <v>135000000</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="61">
         <v>0.18</v>
@@ -3779,18 +3794,18 @@
         <v>7</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="61">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E21" s="62">
         <f t="shared" si="5"/>
-        <v>90000000</v>
+        <v>135000000</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21" s="61">
         <v>0.12</v>
@@ -3801,7 +3816,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="61">
@@ -3812,7 +3827,7 @@
         <v>180000000</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H22" s="61">
         <v>0.18</v>
@@ -3822,6 +3837,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="73" t="s">
+        <v>80</v>
+      </c>
       <c r="D23" s="37">
         <f>SUM(D15:D22)</f>
         <v>1</v>
@@ -3832,7 +3850,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="72"/>
+      <c r="D24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/price/estimate-price.xlsx
+++ b/price/estimate-price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk31\oms\docs\oms-draft\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A989D-78D4-4FFC-B791-358507994443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694AF02-F1AE-4E83-BD0C-D123252C0515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="390" windowWidth="27600" windowHeight="13800" tabRatio="785" firstSheet="1" activeTab="13" xr2:uid="{C181CC4F-00C9-45AF-B1CA-76A1125A7FCB}"/>
   </bookViews>
@@ -623,6 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,7 +633,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1637,10 +1637,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="23">
         <v>1249618549</v>
       </c>
@@ -3191,19 +3191,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD39726-81BA-46B0-BEB2-CC62B43D9108}">
   <dimension ref="A2:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
@@ -3623,20 +3622,20 @@
         <f>E10/C10</f>
         <v>0.82277094211695911</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="73">
         <f>SUM(F12:I12)</f>
         <v>0.17722905788304089</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
-        <v>900000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -3652,7 +3651,7 @@
       </c>
       <c r="E15" s="62">
         <f>$C$14*D15</f>
-        <v>45000000</v>
+        <v>50000000</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>70</v>
@@ -3677,7 +3676,7 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:E22" si="5">$C$14*D16</f>
-        <v>45000000</v>
+        <v>50000000</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>71</v>
@@ -3702,7 +3701,7 @@
       </c>
       <c r="E17" s="62">
         <f t="shared" si="5"/>
-        <v>90000000</v>
+        <v>100000000</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>75</v>
@@ -3727,7 +3726,7 @@
       </c>
       <c r="E18" s="62">
         <f t="shared" si="5"/>
-        <v>135000000</v>
+        <v>150000000</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>72</v>
@@ -3752,7 +3751,7 @@
       </c>
       <c r="E19" s="62">
         <f t="shared" si="5"/>
-        <v>135000000</v>
+        <v>150000000</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>76</v>
@@ -3777,7 +3776,7 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" si="5"/>
-        <v>135000000</v>
+        <v>150000000</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>73</v>
@@ -3802,7 +3801,7 @@
       </c>
       <c r="E21" s="62">
         <f t="shared" si="5"/>
-        <v>135000000</v>
+        <v>150000000</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>74</v>
@@ -3824,7 +3823,7 @@
       </c>
       <c r="E22" s="62">
         <f t="shared" si="5"/>
-        <v>180000000</v>
+        <v>200000000</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>68</v>
@@ -3837,7 +3836,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="70" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="37">
@@ -3846,7 +3845,7 @@
       </c>
       <c r="E23" s="4">
         <f>SUM(E15:E22)</f>
-        <v>900000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
